--- a/script/andijon/andijan_indeks_2023_01.xlsx
+++ b/script/andijon/andijan_indeks_2023_01.xlsx
@@ -51,7 +51,7 @@
     <t xml:space="preserve">Булоқбоши</t>
   </si>
   <si>
-    <t xml:space="preserve">Избоскан</t>
+    <t xml:space="preserve">��������</t>
   </si>
   <si>
     <t xml:space="preserve">Хўжаобод</t>
@@ -63,7 +63,7 @@
     <t xml:space="preserve">Балиқчи</t>
   </si>
   <si>
-    <t xml:space="preserve">Бўстон</t>
+    <t xml:space="preserve">������</t>
   </si>
   <si>
     <t xml:space="preserve">Олтинкўл</t>
@@ -90,7 +90,7 @@
     <t xml:space="preserve">Қўрғонтепа</t>
   </si>
   <si>
-    <t xml:space="preserve">Андижон т.</t>
+    <t xml:space="preserve">������� �.</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
